--- a/outputs/output_from_input.xlsx
+++ b/outputs/output_from_input.xlsx
@@ -452,338 +452,338 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAJOBI</t>
+          <t>CANDIDO_RODRIGUES</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-20.8737</v>
+        <v>-21.3428</v>
       </c>
       <c r="D2" t="n">
-        <v>-48.8388</v>
+        <v>-48.6286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SEVERINIA</t>
+          <t>FERNANDO_PRESTES</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-20.7931</v>
+        <v>-21.3103</v>
       </c>
       <c r="D3" t="n">
-        <v>-48.7938</v>
+        <v>-48.6957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MONTE_AZUL_PAULISTA</t>
+          <t>SANTA_ADELIA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-20.9089</v>
+        <v>-21.3178</v>
       </c>
       <c r="D4" t="n">
-        <v>-48.6813</v>
+        <v>-48.819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BEBEDOURO</t>
+          <t>ITAPOLIS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-20.9405</v>
+        <v>-21.5481</v>
       </c>
       <c r="D5" t="n">
-        <v>-48.5107</v>
+        <v>-48.8155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PIRANGI</t>
+          <t>ITAJOBI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-21.0939</v>
+        <v>-21.3555</v>
       </c>
       <c r="D6" t="n">
-        <v>-48.6694</v>
+        <v>-49.0537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VISTA_ALEGRE_DO_ALTO</t>
+          <t>PINDORAMA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-21.1767</v>
+        <v>-21.2098</v>
       </c>
       <c r="D7" t="n">
-        <v>-48.6494</v>
+        <v>-48.9116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TAIACU</t>
+          <t>CATANDUVA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-21.1322</v>
+        <v>-21.1338</v>
       </c>
       <c r="D8" t="n">
-        <v>-48.5303</v>
+        <v>-48.9637</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAIUVA</t>
+          <t>PALMARES_PAULISTA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-21.1327</v>
+        <v>-21.1047</v>
       </c>
       <c r="D9" t="n">
-        <v>-48.4282</v>
+        <v>-48.8267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MONTE_ALTO</t>
+          <t>ARIRANHA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-21.2593</v>
+        <v>-21.1857</v>
       </c>
       <c r="D10" t="n">
-        <v>-48.533</v>
+        <v>-48.7792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAQUARITINGA</t>
+          <t>VISTA_ALEGRE_DO_ALTO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-21.4256</v>
+        <v>-21.1767</v>
       </c>
       <c r="D11" t="n">
-        <v>-48.5379</v>
+        <v>-48.6494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CANDIDO_RODRIGUES</t>
+          <t>PIRANGI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-21.3428</v>
+        <v>-21.0939</v>
       </c>
       <c r="D12" t="n">
-        <v>-48.6286</v>
+        <v>-48.6694</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FERNANDO_PRESTES</t>
+          <t>PARAISO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-21.3103</v>
+        <v>-21.0196</v>
       </c>
       <c r="D13" t="n">
-        <v>-48.6957</v>
+        <v>-48.7647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SANTA_ADELIA</t>
+          <t>EMBAUBA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-21.3178</v>
+        <v>-20.9529</v>
       </c>
       <c r="D14" t="n">
-        <v>-48.819</v>
+        <v>-48.8475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITAPOLIS</t>
+          <t>CAJOBI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-21.5481</v>
+        <v>-20.8737</v>
       </c>
       <c r="D15" t="n">
-        <v>-48.8155</v>
+        <v>-48.8388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITAJOBI</t>
+          <t>SEVERINIA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-21.3555</v>
+        <v>-20.7931</v>
       </c>
       <c r="D16" t="n">
-        <v>-49.0537</v>
+        <v>-48.7938</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CATANDUVA</t>
+          <t>MONTE_AZUL_PAULISTA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-21.1338</v>
+        <v>-20.9089</v>
       </c>
       <c r="D17" t="n">
-        <v>-48.9637</v>
+        <v>-48.6813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PINDORAMA</t>
+          <t>BEBEDOURO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-21.2098</v>
+        <v>-20.9405</v>
       </c>
       <c r="D18" t="n">
-        <v>-48.9116</v>
+        <v>-48.5107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ARIRANHA</t>
+          <t>TAIUVA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-21.1857</v>
+        <v>-21.1327</v>
       </c>
       <c r="D19" t="n">
-        <v>-48.7792</v>
+        <v>-48.4282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PALMARES_PAULISTA</t>
+          <t>TAIACU</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-21.1047</v>
+        <v>-21.1322</v>
       </c>
       <c r="D20" t="n">
-        <v>-48.8267</v>
+        <v>-48.5303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PARAISO</t>
+          <t>MONTE_ALTO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-21.0196</v>
+        <v>-21.2593</v>
       </c>
       <c r="D21" t="n">
-        <v>-48.7647</v>
+        <v>-48.533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EMBAUBA</t>
+          <t>TAQUARITINGA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-20.9529</v>
+        <v>-21.4256</v>
       </c>
       <c r="D22" t="n">
-        <v>-48.8475</v>
+        <v>-48.5379</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/output_from_input.xlsx
+++ b/outputs/output_from_input.xlsx
@@ -452,306 +452,306 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CANDIDO_RODRIGUES</t>
+          <t>TAIUVA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-21.3428</v>
+        <v>-21.1327</v>
       </c>
       <c r="D2" t="n">
-        <v>-48.6286</v>
+        <v>-48.4282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FERNANDO_PRESTES</t>
+          <t>BEBEDOURO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-21.3103</v>
+        <v>-20.9405</v>
       </c>
       <c r="D3" t="n">
-        <v>-48.6957</v>
+        <v>-48.5107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SANTA_ADELIA</t>
+          <t>MONTE_AZUL_PAULISTA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-21.3178</v>
+        <v>-20.9089</v>
       </c>
       <c r="D4" t="n">
-        <v>-48.819</v>
+        <v>-48.6813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITAPOLIS</t>
+          <t>SEVERINIA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-21.5481</v>
+        <v>-20.7931</v>
       </c>
       <c r="D5" t="n">
-        <v>-48.8155</v>
+        <v>-48.7938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITAJOBI</t>
+          <t>CAJOBI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-21.3555</v>
+        <v>-20.8737</v>
       </c>
       <c r="D6" t="n">
-        <v>-49.0537</v>
+        <v>-48.8388</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PINDORAMA</t>
+          <t>EMBAUBA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-21.2098</v>
+        <v>-20.9529</v>
       </c>
       <c r="D7" t="n">
-        <v>-48.9116</v>
+        <v>-48.8475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CATANDUVA</t>
+          <t>PARAISO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-21.1338</v>
+        <v>-21.0196</v>
       </c>
       <c r="D8" t="n">
-        <v>-48.9637</v>
+        <v>-48.7647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PALMARES_PAULISTA</t>
+          <t>PIRANGI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-21.1047</v>
+        <v>-21.0939</v>
       </c>
       <c r="D9" t="n">
-        <v>-48.8267</v>
+        <v>-48.6694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARIRANHA</t>
+          <t>VISTA_ALEGRE_DO_ALTO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-21.1857</v>
+        <v>-21.1767</v>
       </c>
       <c r="D10" t="n">
-        <v>-48.7792</v>
+        <v>-48.6494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VISTA_ALEGRE_DO_ALTO</t>
+          <t>ARIRANHA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-21.1767</v>
+        <v>-21.1857</v>
       </c>
       <c r="D11" t="n">
-        <v>-48.6494</v>
+        <v>-48.7792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PIRANGI</t>
+          <t>PALMARES_PAULISTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-21.0939</v>
+        <v>-21.1047</v>
       </c>
       <c r="D12" t="n">
-        <v>-48.6694</v>
+        <v>-48.8267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PARAISO</t>
+          <t>CATANDUVA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-21.0196</v>
+        <v>-21.1338</v>
       </c>
       <c r="D13" t="n">
-        <v>-48.7647</v>
+        <v>-48.9637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMBAUBA</t>
+          <t>PINDORAMA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-20.9529</v>
+        <v>-21.2098</v>
       </c>
       <c r="D14" t="n">
-        <v>-48.8475</v>
+        <v>-48.9116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CAJOBI</t>
+          <t>ITAJOBI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-20.8737</v>
+        <v>-21.3555</v>
       </c>
       <c r="D15" t="n">
-        <v>-48.8388</v>
+        <v>-49.0537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SEVERINIA</t>
+          <t>ITAPOLIS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-20.7931</v>
+        <v>-21.5481</v>
       </c>
       <c r="D16" t="n">
-        <v>-48.7938</v>
+        <v>-48.8155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MONTE_AZUL_PAULISTA</t>
+          <t>SANTA_ADELIA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-20.9089</v>
+        <v>-21.3178</v>
       </c>
       <c r="D17" t="n">
-        <v>-48.6813</v>
+        <v>-48.819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BEBEDOURO</t>
+          <t>FERNANDO_PRESTES</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-20.9405</v>
+        <v>-21.3103</v>
       </c>
       <c r="D18" t="n">
-        <v>-48.5107</v>
+        <v>-48.6957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAIUVA</t>
+          <t>CANDIDO_RODRIGUES</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-21.1327</v>
+        <v>-21.3428</v>
       </c>
       <c r="D19" t="n">
-        <v>-48.4282</v>
+        <v>-48.6286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAIACU</t>
+          <t>TAQUARITINGA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-21.1322</v>
+        <v>-21.4256</v>
       </c>
       <c r="D20" t="n">
-        <v>-48.5303</v>
+        <v>-48.5379</v>
       </c>
     </row>
     <row r="21">
@@ -772,18 +772,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAQUARITINGA</t>
+          <t>TAIACU</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-21.4256</v>
+        <v>-21.1322</v>
       </c>
       <c r="D22" t="n">
-        <v>-48.5379</v>
+        <v>-48.5303</v>
       </c>
     </row>
   </sheetData>
